--- a/docs/excel/Tsupermarket.xlsx
+++ b/docs/excel/Tsupermarket.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="Tsupermarket" sheetId="1" r:id="rId1"/>
+    <sheet name="TSupermarket" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "Tsupermarket" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Show</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -196,6 +192,10 @@
       </rPr>
       <t>D</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "TSupermarket" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -633,19 +633,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,24 +671,24 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -722,7 +722,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -858,7 +858,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -909,7 +909,7 @@
         <v>80</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
         <v>80</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1265,14 +1265,14 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>

--- a/docs/excel/Tsupermarket.xlsx
+++ b/docs/excel/Tsupermarket.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CITY\project\treasure\docs\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="204"/>
   </bookViews>
@@ -202,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -618,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1243,11 +1238,6 @@
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="4">
-        <v>703</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/excel/Tsupermarket.xlsx
+++ b/docs/excel/Tsupermarket.xlsx
@@ -10,7 +10,7 @@
     <sheet name="TSupermarket" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -118,10 +118,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -192,6 +188,10 @@
   <si>
     <t>TableName: "TSupermarket" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,20 +624,21 @@
     <col min="2" max="2" width="13.69921875" style="4" customWidth="1"/>
     <col min="3" max="3" width="7.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.09765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
@@ -657,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,13 +672,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -717,7 +718,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -751,7 +752,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -785,7 +786,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -819,7 +820,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -853,7 +854,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -904,7 +905,7 @@
         <v>80</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -921,7 +922,7 @@
         <v>80</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1254,15 +1255,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
